--- a/List of Animes.xlsx
+++ b/List of Animes.xlsx
@@ -1079,635 +1079,175 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>1.  Code Geass</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>22.  Assasination Classroom</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>43.  Jourmangand</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>64.  Akame Ga Kill</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
-          <t>85.  Yugioh</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>106.  H.S.O.T.D</t>
-        </is>
-      </c>
+      <c r="A1" s="7" t="n"/>
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="7" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>2.  Death Note</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>23.  Big Windup</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>44.  Haikyuu</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>65.  Fire Force</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>86.  Blue Dragon</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>107.  K</t>
-        </is>
-      </c>
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>Animes Watched:  0</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>3.  F.M.A Brotherhood</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>24.  Food Wars</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>45.  Initial D</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>66.  Noragami</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>87.  Re:Zero</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>108.  Dinosaur King</t>
-        </is>
-      </c>
+      <c r="A3" s="7" t="n"/>
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>4.  Hunter X Hunter</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>25.  The Future Diary</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>46.  Vinland Saga</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>67.  Digimon</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>88.  Dragonball</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
-        <is>
-          <t>109.  Deadman Wonderland</t>
-        </is>
-      </c>
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>5.  Attack On Titan</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>26.  Parasyte</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>47.  Pokemon</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>68.  Gurren Lagann</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>89.  Guilty Crown</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>110.  Chobits</t>
-        </is>
-      </c>
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>6.  Bleach</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>27.  Toriko</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>48.  D Gray Man</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>69.  Berserk</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>90.  Clannad</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>111.  Future Card Buddyfight</t>
-        </is>
-      </c>
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>7.  Durarara</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>28.  Terror In Resonance</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>49.  Sword Art Online</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>70.  Bakugan</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>91.  Rave Master</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>112.  .hack//Roots</t>
-        </is>
-      </c>
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>8.  Kuroko's Basketball</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>29.  Demon Slayer</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>50.  Psycho Pass</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>71.  Beyblade</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>92.  C - Control The Money</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>113.  HS DD</t>
-        </is>
-      </c>
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>9.  Monster</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>30.  World Trigger</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>51.  F.M.A</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>72.  Log Horizon</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>93.  Phi Brain</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>114.  Sonic X</t>
-        </is>
-      </c>
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="14.5" r="10" s="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>10.  Yu Yu Hakusho</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>31.  Overlord</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>52.  Violet Evergarden</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>73.  Air Gear</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>94.  Hakkeden</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <t>115.  Doraemon</t>
-        </is>
-      </c>
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="15.5" r="11" s="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>11.  No Game No Life</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>32.  Diamond No Ace</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>53.  Kaguya-sama</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>74.  The Melancholy Of Haruhi Suzumiya</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>95.  Jojo's</t>
-        </is>
-      </c>
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="12" s="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>12.  Steins Gate</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>33.  Dr.Stone</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>54.  The Seven Deadly Sins</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>75.  La Story De La Aracanna Famiglia</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>96.  Baccano</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Animes Watched:  115</t>
-        </is>
-      </c>
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="14.5" r="13" s="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>13.  One Piece</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>34.  Blue Exorcist</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>55.  The Devil Is A Part-Timer</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>76.  Vampire Knight</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>97.  Inuyasha</t>
-        </is>
-      </c>
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
       <c r="F13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>14.  Naruto</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>35.  History's Strongest Desciple Kenichi</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>56.  The Law Of Ueki</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>77.  Shaman King</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>98.  Tactics</t>
-        </is>
-      </c>
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
       <c r="F14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>15.  Case Closed</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>36.  Black Clover</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>57.  From The New World</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>78.  B-Dman</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>99.  DanMachi</t>
-        </is>
-      </c>
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
       <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>16.  Ouran High School Host Club</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>37.  Ashiru No Sora</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>58.  My Hero Academia</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>79.  KonaSuba</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>100.  Dragon Drive</t>
-        </is>
-      </c>
+      <c r="A16" s="7" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
       <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>17.  Darker Than Black</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>38.  Magi</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>59.  Mob Psycho</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>80.  Meddaka Box</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>101.  A.O.A.R.H</t>
-        </is>
-      </c>
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
       <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>18.  One Punch Man</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>39.  Fairy Tail</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>60.  Cautious Hero</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>81.  Hajime No Ippo</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>102.  Hagani</t>
-        </is>
-      </c>
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
       <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>19.  Black Butler</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>40.  Fruits Basket</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>61.  Fate</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>82.  Soul Eater</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>103.  Death Parade</t>
-        </is>
-      </c>
+      <c r="A19" s="7" t="n"/>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
       <c r="F19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>20.  The Promised Neverland</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>41.  Bungo Stray Dogs</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>62.  Black Lagoon</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>83.  Gintama</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>104.  Carfight Vanguard</t>
-        </is>
-      </c>
+      <c r="A20" s="7" t="n"/>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
       <c r="F20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>21.  School Rumble</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>42.  Another</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>63.  Gargantia On The Verderous Planet</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>84.  Ruroni Kenshin</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>105.  Made In Abyss</t>
-        </is>
-      </c>
+      <c r="A21" s="7" t="n"/>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
       <c r="F21" s="7" t="n"/>
     </row>
   </sheetData>

--- a/List of Animes.xlsx
+++ b/List of Animes.xlsx
@@ -32,14 +32,14 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF000000"/>
+      <name val="Dubai"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Dubai"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -83,16 +83,54 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -405,7 +443,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -420,636 +458,636 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>.hack//Roots</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>C - Control The Money</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>Durarara</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>Hunter X Hunter</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>One Punch Man</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="15" t="inlineStr">
         <is>
           <t>The Melancholy Of Haruhi Suzumiya</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>A.O.A.R.H</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Carfight Vanguard</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="15" t="inlineStr">
         <is>
           <t>F.M.A</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="15" t="inlineStr">
         <is>
           <t>Initial D</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="E2" s="15" t="inlineStr">
         <is>
           <t>Ouran High School Host Club</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="15" t="inlineStr">
         <is>
           <t>The Promised Neverland</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="15" t="inlineStr">
         <is>
           <t>Air Gear</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>Case Closed</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>F.M.A Brotherhood</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>Inuyasha</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="15" t="inlineStr">
         <is>
           <t>Overlord</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>The Seven Deadly Sins</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t>Akame Ga Kill</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>Cautious Hero</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>Fairy Tail</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="15" t="inlineStr">
         <is>
           <t>Jojo's</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="15" t="inlineStr">
         <is>
           <t>Parasyte</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="15" t="inlineStr">
         <is>
           <t>Toriko</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="15" t="inlineStr">
         <is>
           <t>Another</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>Chobits</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>Fate</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>Jourmangand</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>Phi Brain</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>Vampire Knight</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="14.5" r="6" s="1">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Ashiru No Sora</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>Clannad</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
         <is>
           <t>Fire Force</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="E6" s="15" t="inlineStr">
         <is>
           <t>Pokemon</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="15" t="inlineStr">
         <is>
           <t>Vinland Saga</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t>Assasination Classroom</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>Code Geass</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>Food Wars</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>Kaguya-sama</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>Psycho Pass</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="15" t="inlineStr">
         <is>
           <t>Violet Evergarden</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
+      <c r="A8" s="15" t="inlineStr">
         <is>
           <t>Attack On Titan</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>D Gray Man</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="15" t="inlineStr">
         <is>
           <t>From The New World</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>KonaSuba</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>Kona Suba</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
         <is>
           <t>Rave Master</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="F8" s="15" t="inlineStr">
         <is>
           <t>World Trigger</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="15" t="inlineStr">
         <is>
           <t>B-Dman</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>DanMachi</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>Fruits Basket</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>Kuroko's Basketball</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>Re:Zero</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="15" t="inlineStr">
         <is>
           <t>Yu Yu Hakusho</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="15" t="inlineStr">
         <is>
           <t>Baccano</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>Darker Than Black</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>Future Card Buddyfight</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>La Story De La Aracanna Famiglia</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>Ruroni Kenshin</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr">
+      <c r="F10" s="15" t="inlineStr">
         <is>
           <t>Yugioh</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="11" s="1">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="15" t="inlineStr">
         <is>
           <t>Bakugan</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>Deadman Wonderland</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
         <is>
           <t>Gargantia On The Verderous Planet</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="15" t="inlineStr">
         <is>
           <t>Log Horizon</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>School Rumble</t>
         </is>
       </c>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="12" s="1">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="15" t="inlineStr">
         <is>
           <t>Berserk</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>Death Note</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="C12" s="15" t="inlineStr">
         <is>
           <t>Gintama</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="D12" s="15" t="inlineStr">
         <is>
           <t>Made In Abyss</t>
         </is>
       </c>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>Shaman King</t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F12" s="16" t="inlineStr">
         <is>
           <t>Animes Watched:  115</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="15" t="inlineStr">
         <is>
           <t>Beyblade</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>Death Parade</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
         <is>
           <t>Guilty Crown</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="15" t="inlineStr">
         <is>
           <t>Magi</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>Sonic X</t>
         </is>
       </c>
-      <c r="F13" s="7" t="n"/>
+      <c r="F13" s="15" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>Big Windup</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Demon Slayer</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Gurren Lagann</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Meddaka Box</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Soul Eater</t>
         </is>
       </c>
-      <c r="F14" s="7" t="n"/>
+      <c r="F14" s="15" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="15" t="inlineStr">
         <is>
           <t>Black Butler</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>Diamond No Ace</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="15" t="inlineStr">
         <is>
           <t>H.S.O.T.D</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="15" t="inlineStr">
         <is>
           <t>Mob Psycho</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>Steins Gate</t>
         </is>
       </c>
-      <c r="F15" s="7" t="n"/>
+      <c r="F15" s="15" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>Black Clover</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>Digimon</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C16" s="15" t="inlineStr">
         <is>
           <t>HS DD</t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr">
+      <c r="D16" s="15" t="inlineStr">
         <is>
           <t>Monster</t>
         </is>
       </c>
-      <c r="E16" s="7" t="inlineStr">
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>Sword Art Online</t>
         </is>
       </c>
-      <c r="F16" s="7" t="n"/>
+      <c r="F16" s="15" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>Black Lagoon</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="15" t="inlineStr">
         <is>
           <t>Dinosaur King</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="15" t="inlineStr">
         <is>
           <t>Hagani</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D17" s="15" t="inlineStr">
         <is>
           <t>My Hero Academia</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="15" t="inlineStr">
         <is>
           <t>Tactics</t>
         </is>
       </c>
-      <c r="F17" s="7" t="n"/>
+      <c r="F17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="inlineStr">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>Bleach</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
+      <c r="B18" s="15" t="inlineStr">
         <is>
           <t>Doraemon</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
         <is>
           <t>Haikyuu</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr">
+      <c r="D18" s="15" t="inlineStr">
         <is>
           <t>Naruto</t>
         </is>
       </c>
-      <c r="E18" s="7" t="inlineStr">
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>Terror In Resonance</t>
         </is>
       </c>
-      <c r="F18" s="7" t="n"/>
+      <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>Blue Dragon</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="15" t="inlineStr">
         <is>
           <t>Dr.Stone</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
         <is>
           <t>Hajime No Ippo</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="15" t="inlineStr">
         <is>
           <t>No Game No Life</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="15" t="inlineStr">
         <is>
           <t>The Devil Is A Part-Timer</t>
         </is>
       </c>
-      <c r="F19" s="7" t="n"/>
+      <c r="F19" s="15" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>Blue Exorcist</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B20" s="15" t="inlineStr">
         <is>
           <t>Dragon Drive</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="15" t="inlineStr">
         <is>
           <t>Hakkeden</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
+      <c r="D20" s="15" t="inlineStr">
         <is>
           <t>Noragami</t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="E20" s="15" t="inlineStr">
         <is>
           <t>The Future Diary</t>
         </is>
       </c>
-      <c r="F20" s="7" t="n"/>
+      <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>Bungo Stray Dogs</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="15" t="inlineStr">
         <is>
           <t>Dragonball</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="15" t="inlineStr">
         <is>
           <t>History's Strongest Desciple Kenichi</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="D21" s="15" t="inlineStr">
         <is>
           <t>One Piece</t>
         </is>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="15" t="inlineStr">
         <is>
           <t>The Law Of Ueki</t>
         </is>
       </c>
-      <c r="F21" s="7" t="n"/>
+      <c r="F21" s="15" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1063,10 +1101,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A1" sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1076,179 +1114,681 @@
     <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="34.08984375"/>
     <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="31.90625"/>
     <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="31.08984375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="24.54296875"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="n"/>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Animes Watched:  0</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="n"/>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
-      <c r="F2" s="7" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="7" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="7" t="n"/>
-      <c r="F3" s="7" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="n"/>
-      <c r="B4" s="7" t="n"/>
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n"/>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
+    <row customHeight="1" ht="14" r="1" s="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>1.  Code Geass</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>22.  Assasination Classroom</t>
+        </is>
+      </c>
+      <c r="C1" s="17" t="inlineStr">
+        <is>
+          <t>43.  Jormungand</t>
+        </is>
+      </c>
+      <c r="D1" s="17" t="inlineStr">
+        <is>
+          <t>64.  Gargantia On The Verderous Planet</t>
+        </is>
+      </c>
+      <c r="E1" s="17" t="inlineStr">
+        <is>
+          <t>85.  Black Lagoon</t>
+        </is>
+      </c>
+      <c r="F1" s="17" t="inlineStr">
+        <is>
+          <t>106.  H.S.O.T.D</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="2" s="1">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>2.  Death Note</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>23.  Big Windup</t>
+        </is>
+      </c>
+      <c r="C2" s="17" t="inlineStr">
+        <is>
+          <t>44.  Haikyuu</t>
+        </is>
+      </c>
+      <c r="D2" s="17" t="inlineStr">
+        <is>
+          <t>65.  Akame Ga Kill</t>
+        </is>
+      </c>
+      <c r="E2" s="17" t="inlineStr">
+        <is>
+          <t>86.  Blue Dragon</t>
+        </is>
+      </c>
+      <c r="F2" s="17" t="inlineStr">
+        <is>
+          <t>107.  K</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="3" s="1">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>3.  F.M.A Brotherhood</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>24.  Food Wars</t>
+        </is>
+      </c>
+      <c r="C3" s="17" t="inlineStr">
+        <is>
+          <t>45.  Initial D</t>
+        </is>
+      </c>
+      <c r="D3" s="17" t="inlineStr">
+        <is>
+          <t>66.  Noragami</t>
+        </is>
+      </c>
+      <c r="E3" s="17" t="inlineStr">
+        <is>
+          <t>87.  Re:Zero</t>
+        </is>
+      </c>
+      <c r="F3" s="17" t="inlineStr">
+        <is>
+          <t>108.  Dinosaur King</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="4" s="1">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>4.  Hunter X Hunter</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>25.  The Future Diary</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>46.  Vinland Saga</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>67.  Digimon</t>
+        </is>
+      </c>
+      <c r="E4" s="17" t="inlineStr">
+        <is>
+          <t>88.  Dragonball</t>
+        </is>
+      </c>
+      <c r="F4" s="17" t="inlineStr">
+        <is>
+          <t>109.  Deadmen Wonderland</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="5" s="1">
+      <c r="A5" s="15" t="inlineStr">
+        <is>
+          <t>5.  Attack On Ttian</t>
+        </is>
+      </c>
+      <c r="B5" s="15" t="inlineStr">
+        <is>
+          <t>26.  Parasyte</t>
+        </is>
+      </c>
+      <c r="C5" s="17" t="inlineStr">
+        <is>
+          <t>47.  Pokemon</t>
+        </is>
+      </c>
+      <c r="D5" s="17" t="inlineStr">
+        <is>
+          <t>68.  Gurren Lagann</t>
+        </is>
+      </c>
+      <c r="E5" s="17" t="inlineStr">
+        <is>
+          <t>89.  Guilty Crown</t>
+        </is>
+      </c>
+      <c r="F5" s="17" t="inlineStr">
+        <is>
+          <t>110.  Chobits</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="6" s="1">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>6.    Bleach</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>27.  Toriko</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr">
+        <is>
+          <t>48.  D Gray Man</t>
+        </is>
+      </c>
+      <c r="D6" s="17" t="inlineStr">
+        <is>
+          <t>69.  Berserk</t>
+        </is>
+      </c>
+      <c r="E6" s="17" t="inlineStr">
+        <is>
+          <t>90.  Clannad</t>
+        </is>
+      </c>
+      <c r="F6" s="17" t="inlineStr">
+        <is>
+          <t>111.  Future Card Buddyfight</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.5" r="10" s="1">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.5" r="11" s="1">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.5" r="12" s="1">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.5" r="13" s="1">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="n"/>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
+      <c r="A7" s="15" t="inlineStr">
+        <is>
+          <t>7.  Durarara</t>
+        </is>
+      </c>
+      <c r="B7" s="15" t="inlineStr">
+        <is>
+          <t>28.  Terror In Resonance</t>
+        </is>
+      </c>
+      <c r="C7" s="17" t="inlineStr">
+        <is>
+          <t>49.  Sword Art Online</t>
+        </is>
+      </c>
+      <c r="D7" s="17" t="inlineStr">
+        <is>
+          <t>70.  Bakugan</t>
+        </is>
+      </c>
+      <c r="E7" s="17" t="inlineStr">
+        <is>
+          <t>91.  Rave Master</t>
+        </is>
+      </c>
+      <c r="F7" s="17" t="inlineStr">
+        <is>
+          <t>112.  .hack//Roots</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="8" s="1">
+      <c r="A8" s="15" t="inlineStr">
+        <is>
+          <t>8.  Kuroko's Basketball</t>
+        </is>
+      </c>
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>29.  Demon Slayer</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>50.  Psycho Pass</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>71.  Beyblade</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>92.  C - Control The Money</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>113.  HS DD</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="9" s="1">
+      <c r="A9" s="15" t="inlineStr">
+        <is>
+          <t>9.  Monster</t>
+        </is>
+      </c>
+      <c r="B9" s="15" t="inlineStr">
+        <is>
+          <t>30.  World Trigger</t>
+        </is>
+      </c>
+      <c r="C9" s="17" t="inlineStr">
+        <is>
+          <t>51.  F.M.A</t>
+        </is>
+      </c>
+      <c r="D9" s="17" t="inlineStr">
+        <is>
+          <t>72.  Log Horizon</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>93.  Phi Brain</t>
+        </is>
+      </c>
+      <c r="F9" s="17" t="inlineStr">
+        <is>
+          <t>114.  Sonic X</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="10" s="1">
+      <c r="A10" s="15" t="inlineStr">
+        <is>
+          <t>10.  Yu Yu Hakusho</t>
+        </is>
+      </c>
+      <c r="B10" s="15" t="inlineStr">
+        <is>
+          <t>31.  Overlord</t>
+        </is>
+      </c>
+      <c r="C10" s="17" t="inlineStr">
+        <is>
+          <t>52.  Violet Evergarden</t>
+        </is>
+      </c>
+      <c r="D10" s="17" t="inlineStr">
+        <is>
+          <t>73.  Air Gear</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>94.  Hakkedn</t>
+        </is>
+      </c>
+      <c r="F10" s="17" t="inlineStr">
+        <is>
+          <t>115.  Doraemon</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="11" s="1">
+      <c r="A11" s="15" t="inlineStr">
+        <is>
+          <t>11.  No Game No Life</t>
+        </is>
+      </c>
+      <c r="B11" s="15" t="inlineStr">
+        <is>
+          <t>32.  Diamond No Ace</t>
+        </is>
+      </c>
+      <c r="C11" s="17" t="inlineStr">
+        <is>
+          <t>53.  Kaguya-sama</t>
+        </is>
+      </c>
+      <c r="D11" s="17" t="inlineStr">
+        <is>
+          <t>74.  The Melancholy Of Haruhi Suzumiya</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>95.  Jojo's</t>
+        </is>
+      </c>
+      <c r="F11" s="17" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="12" s="12">
+      <c r="A12" s="18" t="inlineStr">
+        <is>
+          <t>12.  Steins Gate</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="inlineStr">
+        <is>
+          <t>33.  Dr.Stone</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>54.  The Seven Deadly Sins</t>
+        </is>
+      </c>
+      <c r="D12" s="19" t="inlineStr">
+        <is>
+          <t>75.  La Story De La Arcanna Famiglia</t>
+        </is>
+      </c>
+      <c r="E12" s="19" t="inlineStr">
+        <is>
+          <t>96.  Baccano</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="inlineStr">
+        <is>
+          <t>Animes Watched:  115</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="n"/>
+      <c r="H12" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="13" s="1">
+      <c r="A13" s="15" t="inlineStr">
+        <is>
+          <t>13.  One Piece</t>
+        </is>
+      </c>
+      <c r="B13" s="15" t="inlineStr">
+        <is>
+          <t>34.  Blue Exorcist</t>
+        </is>
+      </c>
+      <c r="C13" s="17" t="inlineStr">
+        <is>
+          <t>55.  The Devil Is A Part-Timer</t>
+        </is>
+      </c>
+      <c r="D13" s="17" t="inlineStr">
+        <is>
+          <t>76.  Vampire Knight</t>
+        </is>
+      </c>
+      <c r="E13" s="17" t="inlineStr">
+        <is>
+          <t>97.  Inuyasha</t>
+        </is>
+      </c>
+      <c r="F13" s="17" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="14" s="1">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>14.  Naruto</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>35.  History's Strongest Desciple Kenichi</t>
+        </is>
+      </c>
+      <c r="C14" s="17" t="inlineStr">
+        <is>
+          <t>56.  The Law Of Ueki</t>
+        </is>
+      </c>
+      <c r="D14" s="17" t="inlineStr">
+        <is>
+          <t>77.  Shaman King</t>
+        </is>
+      </c>
+      <c r="E14" s="17" t="inlineStr">
+        <is>
+          <t>98.  Tactics</t>
+        </is>
+      </c>
+      <c r="F14" s="17" t="n"/>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="15" s="1">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>15.  Case Closed</t>
+        </is>
+      </c>
+      <c r="B15" s="17" t="inlineStr">
+        <is>
+          <t>36.  Black Clover</t>
+        </is>
+      </c>
+      <c r="C15" s="17" t="inlineStr">
+        <is>
+          <t>57.  From The New World</t>
+        </is>
+      </c>
+      <c r="D15" s="17" t="inlineStr">
+        <is>
+          <t>78.  B-Dman</t>
+        </is>
+      </c>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>99.  DanMachi</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="16" s="1">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>16.  Ouran High School Host Club</t>
+        </is>
+      </c>
+      <c r="B16" s="17" t="inlineStr">
+        <is>
+          <t>37.  Ashiru No Sora</t>
+        </is>
+      </c>
+      <c r="C16" s="17" t="inlineStr">
+        <is>
+          <t>58.  My Hero Academia</t>
+        </is>
+      </c>
+      <c r="D16" s="17" t="inlineStr">
+        <is>
+          <t>79.  Kona Suba</t>
+        </is>
+      </c>
+      <c r="E16" s="17" t="inlineStr">
+        <is>
+          <t>100.  Dragon Drive</t>
+        </is>
+      </c>
+      <c r="F16" s="17" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="17" s="1">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>17.  Darker Than Black</t>
+        </is>
+      </c>
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>38.  Magi</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>59.  Mob Psycho</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>80.  Meddaka Box</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>101.  A.O.A.R.H</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="18" s="1">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>18.  One Punch Man</t>
+        </is>
+      </c>
+      <c r="B18" s="17" t="inlineStr">
+        <is>
+          <t>39.  Fairy Tail</t>
+        </is>
+      </c>
+      <c r="C18" s="17" t="inlineStr">
+        <is>
+          <t>60.  Fire Force</t>
+        </is>
+      </c>
+      <c r="D18" s="17" t="inlineStr">
+        <is>
+          <t>81.  Hajime No Ippo</t>
+        </is>
+      </c>
+      <c r="E18" s="17" t="inlineStr">
+        <is>
+          <t>102.  Hagani</t>
+        </is>
+      </c>
+      <c r="F18" s="17" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="19" s="1">
+      <c r="A19" s="15" t="inlineStr">
+        <is>
+          <t>19.  Black Butler</t>
+        </is>
+      </c>
+      <c r="B19" s="17" t="inlineStr">
+        <is>
+          <t>40.  Fruits Basket</t>
+        </is>
+      </c>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t>61.  Cautious Hero</t>
+        </is>
+      </c>
+      <c r="D19" s="17" t="inlineStr">
+        <is>
+          <t>82.  Soul Eater</t>
+        </is>
+      </c>
+      <c r="E19" s="17" t="inlineStr">
+        <is>
+          <t>103.  Death Parade</t>
+        </is>
+      </c>
+      <c r="F19" s="17" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="20" s="1">
+      <c r="A20" s="15" t="inlineStr">
+        <is>
+          <t>20.  The Promised Neverland</t>
+        </is>
+      </c>
+      <c r="B20" s="17" t="inlineStr">
+        <is>
+          <t>41.  Bungo Stray Dogs</t>
+        </is>
+      </c>
+      <c r="C20" s="17" t="inlineStr">
+        <is>
+          <t>62.  Fate</t>
+        </is>
+      </c>
+      <c r="D20" s="17" t="inlineStr">
+        <is>
+          <t>83.  Ruroni Kenshin</t>
+        </is>
+      </c>
+      <c r="E20" s="17" t="inlineStr">
+        <is>
+          <t>104.  Cardfight Vanguard</t>
+        </is>
+      </c>
+      <c r="F20" s="17" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="21" s="1">
+      <c r="A21" s="15" t="inlineStr">
+        <is>
+          <t>21.  School Rumble</t>
+        </is>
+      </c>
+      <c r="B21" s="17" t="inlineStr">
+        <is>
+          <t>42.  Another</t>
+        </is>
+      </c>
+      <c r="C21" s="17" t="inlineStr">
+        <is>
+          <t>63.  Gintama</t>
+        </is>
+      </c>
+      <c r="D21" s="17" t="inlineStr">
+        <is>
+          <t>84.  Yugioh</t>
+        </is>
+      </c>
+      <c r="E21" s="17" t="inlineStr">
+        <is>
+          <t>105.  Made In Abyss</t>
+        </is>
+      </c>
+      <c r="F21" s="17" t="n"/>
+      <c r="G21" s="6" t="n"/>
+      <c r="H21" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1263,8 +1803,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1280,192 +1820,192 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>1.  Yu Yu Hakusho</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>22.  The Promised Neverland</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>43.  Durarara</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>64.  Hunter X Hunter</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>85.  La Story De La Aracanna Famiglia</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>106.  Chobits</t>
+          <t>1.  Code Geass</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>22.  Assasination Classroom</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>43.  Jormungand</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>64.  Gargantia On The Verderous Planet</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>85.  Black Lagoon</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>106.  H.S.O.T.D</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>2.  World Trigger</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>23.  Carfight Vanguard</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>44.  Steins Gate</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>65.  Initial D</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>86.  Ouran High School Host Club</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>107.  C - Control The Money</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2.  Death Note</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>23.  Big Windup</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>44.  Haikyuu</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>65.  Akame Ga Kill</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>86.  Blue Dragon</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>107.  K</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>3.  Violet Evergarden</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>24.  Case Closed</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>45.  F.M.A Brotherhood</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>3.  F.M.A Brotherhood</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>24.  Food Wars</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>45.  Initial D</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>66.  Noragami</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>87.  KonaSuba</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>108.  Baccano</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>87.  Re:Zero</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>108.  Dinosaur King</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>4.  Vinland Saga</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>25.  Cautious Hero</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>46.  Fairy Tail</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>67.  Phi Brain</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>88.  K</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>109.  B-Dman</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>4.  Hunter X Hunter</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>25.  The Future Diary</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>46.  Vinland Saga</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>67.  Digimon</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>88.  Dragonball</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>109.  Deadmen Wonderland</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>5.  Vampire Knight</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>26.  The Melancholy Of Haruhi Suzumiya</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>47.  Soul Eater</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>68.  Jourmangand</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>89.  Jojo's</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>110.  Another</t>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>5.  Attack On Ttian</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>26.  Parasyte</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>47.  Pokemon</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>68.  Gurren Lagann</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>89.  Guilty Crown</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>110.  Chobits</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>6.  Ashiru No Sora</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>27.  Clannad</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>48.  Fire Force</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>69.  Parasyte</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>90.  Inuyasha</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>111.  Air Gear</t>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>6 .  Bleach</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>27.  Toriko</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>48.  D Gray Man</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>69.  Berserk</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>90.  Clannad</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>111.  Future Card Buddyfight</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -1473,444 +2013,444 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>7.  Assasination Classroom</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>28.  Code Geass</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>49.  Food Wars</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>70.  Kaguya-sama</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>91.  Hakkeden</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>112.  Akame Ga Kill</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>7.  Durarara</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>28.  Terror In Resonance</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>49.  Sword Art Online</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>70.  Bakugan</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>91.  Rave Master</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>112.  .hack//Roots</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>8.  Attack On Titan</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>29.  D Gray Man</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>50.  From The New World</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>71.  Overlord</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>92.  Hajime No Ippo</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>113.  Yugioh</t>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>8.  Kuroko's Basketball</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>29.  Demon Slayer</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>50.  Psycho Pass</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>71.  Beyblade</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>92.  C - Control The Money</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>113.  HS DD</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>9.  Toriko</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>30.  The Law Of Ueki</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>51.  Fruits Basket</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>72.  Kuroko's Basketball</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>93.  Hagani</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>114.  A.O.A.R.H</t>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>9.  Monster</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>30.  World Trigger</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>51.  F.M.A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>72.  Log Horizon</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>93.  Phi Brain</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>114.  Sonic X</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="10" s="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>10.  The Seven Deadly Sins</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>10.  Yu Yu Hakusho</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>31.  Darker Than Black</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>52.  Future Card Buddyfight</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>73.  One Punch Man</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>94.  H.S.O.T.D</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>115.  .hack//Roots</t>
+          <t>31.  Overlord</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>52.  Violet Evergarden</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>73.  Air Gear</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>94.  Hakkedn</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>115.  Doraemon</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="15" r="11" s="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>11.  Bakugan</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>32.  Deadman Wonderland</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>53.  Gargantia On The Verderous Planet</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>74.  Log Horizon</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>95.  HS DD</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n"/>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>11.  No Game No Life</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>32.  Diamond No Ace</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>53.  Kaguya-sama</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>74.  The Melancholy Of Haruhi Suzumiya</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>95.  Jojo's</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="20.5" r="12" s="1">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>12.  Berserk</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>33.  Death Note</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>54.  Mob Psycho</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>75.  Made In Abyss</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>96.  Gurren Lagann</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>12.  Steins Gate</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>33.  Dr.Stone</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>54.  The Seven Deadly Sins</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>75.  La Story De La Arcanna Famiglia</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>96.  Baccano</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>Animes Watched:  115</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>13.  Beyblade</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>34.  The Future Diary</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>55.  Guilty Crown</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>76.  Magi</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>97.  Gintama</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="n"/>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>13.  One Piece</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>34.  Blue Exorcist</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>55.  The Devil Is A Part-Timer</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>76.  Vampire Knight</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>97.  Inuyasha</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>14.  Big Windup</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>35.  Demon Slayer</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>56.  Monster</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>77.  Meddaka Box</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>98.  Fate</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n"/>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>14.  Naruto</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>35.  History's Strongest Desciple Kenichi</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>56.  The Law Of Ueki</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>77.  Shaman King</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>98.  Tactics</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>15.  Black Butler</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>36.  Diamond No Ace</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>57.  My Hero Academia</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>78.  Sonic X</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>99.  F.M.A</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="n"/>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>15.  Case Closed</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>36.  Black Clover</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>57.  From The New World</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>78.  B-Dman</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>99.  DanMachi</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>16.  Black Clover</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>37.  The Devil Is A Part-Timer</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>58.  School Rumble</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>79.  Shaman King</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>100.  Dragonball</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n"/>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>16.  Ouran High School Host Club</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>37.  Ashiru No Sora</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>58.  My Hero Academia</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>79.  Kona Suba</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>100.  Dragon Drive</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>17.  Black Lagoon</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>38.  Tactics</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>59.  Naruto</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>80.  Ruroni Kenshin</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>101.  Dinosaur King</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="n"/>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>17.  Darker Than Black</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>38.  Magi</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>59.  Mob Psycho</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>80.  Meddaka Box</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>101.  A.O.A.R.H</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>18.  Bleach</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>39.  Terror In Resonance</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>60.  Haikyuu</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>81.  Re:Zero</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>102.  Doraemon</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n"/>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>18.  One Punch Man</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>39.  Fairy Tail</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>60.  Fire Force</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>81.  Hajime No Ippo</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>102.  Hagani</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>19.  Blue Dragon</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>40.  Dr.Stone</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>61.  No Game No Life</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>82.  Rave Master</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>103.  Digimon</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>19.  Black Butler</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>40.  Fruits Basket</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>61.  Cautious Hero</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>82.  Soul Eater</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>103.  Death Parade</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>20.  Blue Exorcist</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>41.  Dragon Drive</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>62.  Psycho Pass</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>83.  Pokemon</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>104.  Death Parade</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>20.  The Promised Neverland</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>41.  Bungo Stray Dogs</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>62.  Fate</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>83.  Ruroni Kenshin</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>104.  Cardfight Vanguard</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>21.  Bungo Stray Dogs</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>42.  Sword Art Online</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>63.  History's Strongest Desciple Kenichi</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>84.  One Piece</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>105.  DanMachi</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="n"/>
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>21.  School Rumble</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>42.  Another</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>63.  Gintama</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>84.  Yugioh</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>105.  Made In Abyss</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
